--- a/lib/text_ua/seo_content_text_sentences_last.xlsx
+++ b/lib/text_ua/seo_content_text_sentences_last.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="595">
   <si>
     <t xml:space="preserve">Не пропустите идеальные летние шины: лучшее предложение только у нас!</t>
   </si>
@@ -1397,6 +1397,414 @@
   </si>
   <si>
     <t xml:space="preserve">Розумне співвідношення параметрів – ключ до надійності та безпеки на магістралі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ключевое предложение: Всесезонные шины поддерживают надежный контакт с дорогой вне зависимости от времени года благодаря сочетанию свойств летних и зимних шин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ключова пропозиція: Всесезонні шини підтримують надійний контакт із дорогою незалежно від пори року завдяки поєднанню властивостей літніх та зимових шин.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чем выше данный параметр, тем больше проходимость, но уступает управляемости.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чим вище цей параметр, тим більша прохідність, але поступається керованості.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кажущаяся ничтожной, данная процедура фактически оказывает существенное влияние на результат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Здається нікчемною, дана процедура фактично істотно впливає на результат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важно убедиться в правильном давлении перед путешествиями, чтобы обезопасить себя от неожиданных сложностей на дороге.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важливо переконатись у правильному тиску перед подорожами, щоб убезпечити себе від несподіваних складнощів на дорозі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описанное свойство существенно продлевает срок эксплуатации шин, гарантируя стабильность и безопасность вашего автомобиля в пути.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Описана властивість суттєво продовжує термін експлуатації шин, гарантуючи стабільність та безпеку вашого автомобіля у дорозі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зачем важно прислушиваться к рекомендациям производителя при выборе шин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Навіщо важливо дослухатися рекомендацій виробника при виборі шин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учитывая сезонность и климатические особенности региона эксплуатации, необходимо выбирать автомобиль с учетом данных факторов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Враховуючи сезонність та кліматичні особливості регіону експлуатації, необхідно вибирати автомобіль з урахуванням даних факторів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мировые бренды шин, включая Michelin, Continental, Bridgestone и Goodyear, представлены среди производителей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Світові бренди шин, включаючи Michelin, Continental, Bridgestone та Goodyear представлені серед виробників.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На укатанных снежных дорогах или ледяной поверхности данные шины могут не обеспечить должное сцепление и контроль над автомобилем, что ухудшит управляемость.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На закатаних снігових дорогах або крижаній поверхні ці шини можуть не забезпечити належне зчеплення та контроль над автомобілем, що погіршить керованість.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На укатанных снежных дорогах или ледяной поверхности такие шины могут ухудшить управляемость автомобиля, не обеспечив должное сцепление.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На закатаних снігових дорогах або крижаній поверхні такі шини можуть погіршити керованість автомобіля, не забезпечивши належне зчеплення.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За рулем в условиях сильных морозов, водитель может чувствовать себя комфортно и безопасно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За кермом в умовах сильних морозів, водій може почуватися комфортно та безпечно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важно следить за состоянием резины, чтобы избежать проблем при эксплуатации.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важливо стежити за станом гуми, щоб уникнути проблем під час експлуатації.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определенное число на шинах автомобиля указывает на их грузоподъемность, что является важным критерием при подборе подходящего варианта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Певна кількість на шинах автомобіля вказує на їхню вантажопідйомність, що є важливим критерієм при підборі відповідного варіанту.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Им важна безопасность на дорогах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Їм важлива безпека на дорогах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эти шины прекрасно выполняют свою функцию.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ці шини чудово виконують свою функцію.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данное предложение рассчитано на то, чтобы помочь вам выбрать подходящие и надежные шины для вашего автомобиля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дана пропозиція розрахована на те, щоб допомогти вам вибрати відповідні та надійні шини для вашого автомобіля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перечень включает в себя мировых лидеров автомобильной промышленности и узнаваемые бренды с высоким качеством продукции.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перелік включає світових лідерів автомобільної промисловості і відомі бренди з високою якістю продукції.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот продукт обладает возможностью долгосрочного использования.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цей продукт має можливість довгострокового використання.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надлежащее давление в шинах играет важную роль в обеспечении безопасности и долговечности колесного транспорта.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Належний тиск у шинах відіграє важливу роль у забезпеченні безпеки та довговічності колісного транспорту.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот выбор гарантирует высокое качество и долговечность.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цей вибір гарантує високу якість та довговічність.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В их линейке есть как стандартные модели, так и изделия премиум-класса.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В їхній лінійці є як стандартні моделі, так і вироби преміум-класу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Более дешевые варианты могут быть менее долговечными, но более доступными.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дешевші варіанти можуть бути менш довговічними, але доступнішими.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важно учитывать различия между премиумными, средними и бюджетными брендами по цене и характеристикам товаров.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Важливо враховувати відмінності між преміумними, середніми та бюджетними брендами за ціною та характеристиками товарів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как известные производители, так и менее известные бренды шин гарантируют надежность и безопасность во время езды.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Як відомі виробники, так і менш відомі бренди шин гарантують надійність та безпеку під час їзди.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Достигается базовый уровень безопасности и проходимости.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Досягається базовий рівень безпеки та прохідності.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это предложение поможет вам быстро подобрать оптимальное решение для вашего транспортного средства.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ця пропозиція допоможе вам швидко підібрати оптимальне рішення для транспортного засобу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С помощью этого предложения вы легко найдете оптимальный вариант для вашего автомобиля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За допомогою цієї пропозиції ви легко знайдете оптимальний варіант для вашого автомобіля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это предложение поможет вам быстро найти оптимальный вариант для вашего автомобиля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ця пропозиція допоможе вам швидко знайти оптимальний варіант для вашого автомобіля.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это предложение поможет вам выбрать наилучший вариант для вашего транспортного средства.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ця пропозиція допоможе вам вибрати найкращий варіант для транспортного засобу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С уверенностью представляем сертифицированные шины [size] гарантией от производителя, цену которых ценят клиенты.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">З упевненістю представляємо сертифіковані шини гарантією від виробника, ціну яких цінують клієнти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гордимся репутацией поставщика оригинальных товаров для автомобилей.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пишаємося репутацією постачальника оригінальних товарів для автомобілів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Характеризуются высокой надежностью и долговечностью.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Характеризуються високою надійністю та довговічністю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подобное свойство обеспечивает шинам большую износостойкость и устойчивость летом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подібна властивість забезпечує шинам більшу зносостійкість та стійкість влітку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данная формула гарантирует превосходное сцепление шин с дорогой при плюсовых температурах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дана формула гарантує чудове зчеплення шин з дорогою за плюсових температур.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Существенно улучшают безопасность на дороге.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Істотно покращують безпеку на дорозі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ощутите наслаждение от спокойной поездки в теплое время года.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відчуйте насолоду від спокійної поїздки у теплу пору року.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За рулем, благодаря этим особенностям, водитель будет ощущать большую уверенность.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За кермом завдяки цим особливостям водій відчуватиме велику впевненість.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узнайте все о летних шинах для вашего автомобиля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дізнайтесь все про літні шини для вашого автомобіля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наслаждайтесь безопасностью и комфортом во время путешествий с нами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насолоджуйтесь безпекою та комфортом під час подорожей з нами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наслаждайтесь комфортом и уверенностью на дороге с шинами от PROKOLESO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Насолоджуйтесь комфортом та впевненістю на дорозі з шинами від PROKOLESO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уменьшенное давление оказывает отрицательное воздействие на шины, повышая износ и снижая управляемость.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зменшений тиск негативно впливає на шини, підвищуючи знос і знижуючи керованість.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Этот выбор способствует вашей безопасности при движении по трассам и в городе.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цей вибір сприяє вашій безпеці під час руху трасами та в місті.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соблюдайте осторожность при управлении автомобилем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Будьте обережні при керуванні автомобілем.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обеспечивает устойчивость при движении по различным дорожным условиям и избегает проблем со сцеплением.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Забезпечує стійкість під час руху за різними дорожніми умовами та уникає проблем зі зчепленням.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помогает уменьшить риск потери сцепления и обеспечивает плавность движения по дороге.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допомагає зменшити ризик втрати зчеплення та забезпечує плавність руху дорогою.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соблюдение правил дорожного движения на мокром покрытии гарантирует безопасность вашего передвижения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дотримання правил дорожнього руху на мокрому покритті гарантує безпеку пересування.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В условиях снегопада или гололедицы особенно важно обеспечить безопасность на дорогах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В умовах снігопаду чи ожеледиці особливо важливо забезпечити безпеку на дорогах.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это предложение помогает обеспечить комфорт и безопасность во время движения.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ця пропозиція допомагає забезпечити комфорт та безпеку під час руху.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это предложение позволит поднять уровень безопасности и уверенности на дороге.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ця пропозиція дозволить підняти рівень безпеки та впевненості на дорозі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соблюдайте оптимальную скорость и не забывайте об установлении правильного расстояния между транспортными средствами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дотримуйтесь оптимальної швидкості та не забувайте про встановлення правильної відстані між транспортними засобами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создает условия для надежного управления автомобилем в зимние месяцы.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Створює умови для надійного керування автомобілем у зимові місяці.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помогает избежать скольжения и обеспечивает стабильность автомобиля на гладких дорожных участках.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допомагає уникнути ковзання та забезпечує стабільність автомобіля на гладких дорожніх ділянках.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В условиях переменчивой погоды важно обеспечить автомобиль качественными шинами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В умовах мінливої ​​погоди важливо забезпечити автомобіль якісними шинами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для автомобилей с размером шин [size] это предложение позволит обеспечить дополнительное сцепление с дорогой в зимнее время.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для автомобілів з розміром шин [size] ця пропозиція дозволить забезпечити додаткове зчеплення з дорогою взимку.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Возможность применения шипов для повышения сцепления на льду и снегу с [size] есть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Можливість застосування шипів для підвищення зчеплення на льоду та снігу з [size] є.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это предложение поможет вам избежать опасных ситуаций на дороге.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ця пропозиція допоможе вам уникнути небезпечних ситуацій на дорозі.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В условиях гололеда не стоит рассчитывать на эффективное сцепление шин с дорогой.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В умовах ожеледиці не варто розраховувати на ефективне зчеплення шин із дорогою.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Избегайте прямых солнечных лучей и источников тепла.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уникайте прямих сонячних променів та джерел тепла.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оградите себя от прямых солнечных лучей и источников тепла.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Захистіть себе від прямих сонячних променів та джерел тепла.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найдите оптимальную цену с помощью тщательного сравнения предложений.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Знайдіть оптимальну ціну за допомогою ретельного порівняння речень.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите надежные шины, остановившись на нашем предложении.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виберіть надійні шини, зупинившись на нашому реченні.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите подходящие шины в зависимости от сезонности, цены и производителя. Создайте пять вариантов предложений.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виберіть відповідні шини в залежності від сезонності, ціни та виробника. Створіть п'ять варіантів речень.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всё, что нужно знать о маркировке [size] на шинах в одном предложении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Все, що потрібно знати про маркування [size] на шинах в одному реченні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резина [size] : быстрая доставка и удобная оплата в одном предложении</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гума [size] : швидка доставка та зручна оплата в одному реченні</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сочетание доступности и качества в нашем предложении позволяет нам быть оптимальным решением для тех, кто стремится сэкономить без ущерба для стандартов.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поєднання доступності та якості в нашому реченні дозволяє нам бути оптимальним рішенням для тих, хто прагне заощадити без шкоди для стандартів.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разгадка тайн производства [size] : рассекречено на сайте "ПРОКОЛЕСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Розгадка таємниць виробництва [size]: розсекречено на сайті "ПРОКОЛЕСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открытая дверь в тайные миры шин: [size] рассекречено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Відчинені двері до таємних світів шин: [size] розсекречено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За кулисами производства шин [size] : засекреченные подробности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">За лаштунками виробництва шин [size] : засекречені подробиці</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1814,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1433,11 +1841,6 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1486,8 +1889,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1499,7 +1906,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1513,15 +1920,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal" xfId="20"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1636,23 +2034,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A272" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E298" activeCellId="0" sqref="E298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="77.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="77.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="80.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+      <c r="A1" s="2" t="n">
         <v>380807</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1660,2555 +2058,3303 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>381144</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>381212</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>757887</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>757888</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>757889</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>757890</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>757891</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>757892</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="2" t="n">
         <v>757893</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="2" t="n">
         <v>757894</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="2" t="n">
         <v>757895</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="2" t="n">
         <v>757896</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="2" t="n">
         <v>757897</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="2" t="n">
         <v>757898</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="2" t="n">
         <v>757899</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="2" t="n">
         <v>757900</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="A18" s="2" t="n">
         <v>757926</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="2" t="n">
         <v>757927</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="A20" s="2" t="n">
         <v>757928</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="2" t="n">
         <v>757929</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="2" t="n">
         <v>757930</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="2" t="n">
         <v>757931</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+      <c r="A24" s="2" t="n">
         <v>757932</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="2" t="n">
         <v>757933</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="2" t="n">
         <v>757934</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="2" t="n">
         <v>757935</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+      <c r="A28" s="2" t="n">
         <v>757936</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="2" t="n">
         <v>757937</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+      <c r="A30" s="2" t="n">
         <v>757938</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="2" t="n">
         <v>757939</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="2" t="n">
         <v>757940</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="2" t="n">
         <v>757941</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+      <c r="A34" s="2" t="n">
         <v>757942</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="2" t="n">
         <v>757943</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+      <c r="A36" s="2" t="n">
         <v>757944</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="2" t="n">
         <v>757945</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+      <c r="A38" s="2" t="n">
         <v>757946</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="2" t="n">
         <v>757972</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+      <c r="A40" s="2" t="n">
         <v>757973</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+      <c r="A41" s="2" t="n">
         <v>757974</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="2" t="n">
         <v>757975</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+      <c r="A43" s="2" t="n">
         <v>757976</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="2" t="n">
         <v>757977</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+      <c r="A45" s="2" t="n">
         <v>757978</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="2" t="n">
         <v>757979</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+      <c r="A47" s="2" t="n">
         <v>757980</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="2" t="n">
         <v>757981</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+      <c r="A49" s="2" t="n">
         <v>757982</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="2" t="n">
         <v>757983</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+      <c r="A51" s="2" t="n">
         <v>757984</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+      <c r="A52" s="2" t="n">
         <v>757985</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+      <c r="A53" s="2" t="n">
         <v>757986</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+      <c r="A54" s="2" t="n">
         <v>757987</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+      <c r="A55" s="2" t="n">
         <v>757988</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+      <c r="A56" s="2" t="n">
         <v>757989</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+      <c r="A57" s="2" t="n">
         <v>757990</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+      <c r="A58" s="2" t="n">
         <v>757991</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+      <c r="A59" s="2" t="n">
         <v>757992</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+      <c r="A60" s="2" t="n">
         <v>757993</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+      <c r="A61" s="2" t="n">
         <v>757994</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+      <c r="A62" s="2" t="n">
         <v>757995</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+      <c r="A63" s="2" t="n">
         <v>757996</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+      <c r="A64" s="2" t="n">
         <v>758022</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+      <c r="A65" s="2" t="n">
         <v>758023</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+      <c r="A66" s="2" t="n">
         <v>758024</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+      <c r="A67" s="2" t="n">
         <v>758025</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+      <c r="A68" s="2" t="n">
         <v>758026</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+      <c r="A69" s="2" t="n">
         <v>758027</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+      <c r="A70" s="2" t="n">
         <v>758028</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+      <c r="A71" s="2" t="n">
         <v>758029</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+      <c r="A72" s="2" t="n">
         <v>758030</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+      <c r="A73" s="2" t="n">
         <v>758031</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+      <c r="A74" s="2" t="n">
         <v>758032</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
+      <c r="A75" s="2" t="n">
         <v>758033</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
+      <c r="A76" s="2" t="n">
         <v>758034</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
+      <c r="A77" s="2" t="n">
         <v>758035</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
+      <c r="A78" s="2" t="n">
         <v>758036</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
+      <c r="A79" s="2" t="n">
         <v>758037</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
+      <c r="A80" s="2" t="n">
         <v>758038</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
+      <c r="A81" s="2" t="n">
         <v>758039</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
+      <c r="A82" s="2" t="n">
         <v>758040</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
+      <c r="A83" s="2" t="n">
         <v>758041</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
+      <c r="A84" s="2" t="n">
         <v>758042</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
+      <c r="A85" s="2" t="n">
         <v>758043</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
+      <c r="A86" s="2" t="n">
         <v>758044</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
+      <c r="A87" s="2" t="n">
         <v>758045</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
+      <c r="A88" s="2" t="n">
         <v>758046</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
+      <c r="A89" s="2" t="n">
         <v>758072</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
+      <c r="A90" s="2" t="n">
         <v>758073</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
+      <c r="A91" s="2" t="n">
         <v>758074</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
+      <c r="A92" s="2" t="n">
         <v>758075</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
+      <c r="A93" s="2" t="n">
         <v>758076</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
+      <c r="A94" s="2" t="n">
         <v>758077</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
+      <c r="A95" s="2" t="n">
         <v>758078</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
+      <c r="A96" s="2" t="n">
         <v>758079</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
+      <c r="A97" s="2" t="n">
         <v>758080</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
+      <c r="A98" s="2" t="n">
         <v>758081</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="3" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
+      <c r="A99" s="2" t="n">
         <v>758082</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
+      <c r="A100" s="2" t="n">
         <v>758083</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="3" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
+      <c r="A101" s="2" t="n">
         <v>758084</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
+      <c r="A102" s="2" t="n">
         <v>758085</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
+      <c r="A103" s="2" t="n">
         <v>758086</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
+      <c r="A104" s="2" t="n">
         <v>758087</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
+      <c r="A105" s="2" t="n">
         <v>758088</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
+      <c r="A106" s="2" t="n">
         <v>758089</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
+      <c r="A107" s="2" t="n">
         <v>758090</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
+      <c r="A108" s="2" t="n">
         <v>758091</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
+      <c r="A109" s="2" t="n">
         <v>758092</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="3" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
+      <c r="A110" s="2" t="n">
         <v>758093</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="3" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
+      <c r="A111" s="2" t="n">
         <v>758094</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
+      <c r="A112" s="2" t="n">
         <v>758095</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="3" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
+      <c r="A113" s="2" t="n">
         <v>758096</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
+      <c r="A114" s="2" t="n">
         <v>758122</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
+      <c r="A115" s="2" t="n">
         <v>758123</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
+      <c r="A116" s="2" t="n">
         <v>758124</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
+      <c r="A117" s="2" t="n">
         <v>758125</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
+      <c r="A118" s="2" t="n">
         <v>758126</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
+      <c r="A119" s="2" t="n">
         <v>758127</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="3" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
+      <c r="A120" s="2" t="n">
         <v>758128</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="3" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
+      <c r="A121" s="2" t="n">
         <v>758129</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
+      <c r="A122" s="2" t="n">
         <v>758130</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
+      <c r="A123" s="2" t="n">
         <v>758131</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
+      <c r="A124" s="2" t="n">
         <v>758132</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
+      <c r="A125" s="2" t="n">
         <v>758133</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="3" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
+      <c r="A126" s="2" t="n">
         <v>758134</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="3" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
+      <c r="A127" s="2" t="n">
         <v>758135</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
+      <c r="A128" s="2" t="n">
         <v>758136</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="3" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
+      <c r="A129" s="2" t="n">
         <v>758137</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
+      <c r="A130" s="2" t="n">
         <v>758138</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="3" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
+      <c r="A131" s="2" t="n">
         <v>758139</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="3" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
+      <c r="A132" s="2" t="n">
         <v>758140</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
+      <c r="A133" s="2" t="n">
         <v>758141</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="3" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
+      <c r="A134" s="2" t="n">
         <v>758142</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
+      <c r="A135" s="2" t="n">
         <v>758143</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
+      <c r="A136" s="2" t="n">
         <v>758144</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="3" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
+      <c r="A137" s="2" t="n">
         <v>758145</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="3" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
+      <c r="A138" s="2" t="n">
         <v>758146</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
+      <c r="A139" s="2" t="n">
         <v>758172</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="3" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
+      <c r="A140" s="2" t="n">
         <v>758173</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="3" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
+      <c r="A141" s="2" t="n">
         <v>758174</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
+      <c r="A142" s="2" t="n">
         <v>758175</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="3" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
+      <c r="A143" s="2" t="n">
         <v>758176</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="3" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
+      <c r="A144" s="2" t="n">
         <v>758177</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="3" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
+      <c r="A145" s="2" t="n">
         <v>758178</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="3" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
+      <c r="A146" s="2" t="n">
         <v>758179</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="3" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
+      <c r="A147" s="2" t="n">
         <v>758180</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
+      <c r="A148" s="2" t="n">
         <v>758181</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
+      <c r="A149" s="2" t="n">
         <v>758182</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
+      <c r="A150" s="2" t="n">
         <v>758183</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="3" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
+      <c r="A151" s="2" t="n">
         <v>758184</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="3" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
+      <c r="A152" s="2" t="n">
         <v>758185</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="3" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
+      <c r="A153" s="2" t="n">
         <v>758186</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="3" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
+      <c r="A154" s="2" t="n">
         <v>758187</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
+      <c r="A155" s="2" t="n">
         <v>758188</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
+      <c r="A156" s="2" t="n">
         <v>758189</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
+      <c r="A157" s="2" t="n">
         <v>758190</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
+      <c r="A158" s="2" t="n">
         <v>758191</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
+      <c r="A159" s="2" t="n">
         <v>758192</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
+      <c r="A160" s="2" t="n">
         <v>758193</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
+      <c r="A161" s="2" t="n">
         <v>758194</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
+      <c r="A162" s="2" t="n">
         <v>758195</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="3" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
+      <c r="A163" s="2" t="n">
         <v>758196</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="3" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
+      <c r="A164" s="2" t="n">
         <v>758222</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
+      <c r="A165" s="2" t="n">
         <v>758223</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="3" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
+      <c r="A166" s="2" t="n">
         <v>758224</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="3" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
+      <c r="A167" s="2" t="n">
         <v>758225</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="3" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
+      <c r="A168" s="2" t="n">
         <v>758226</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="3" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
+      <c r="A169" s="2" t="n">
         <v>758227</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="3" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
+      <c r="A170" s="2" t="n">
         <v>758228</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
+      <c r="A171" s="2" t="n">
         <v>758229</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="3" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
+      <c r="A172" s="2" t="n">
         <v>758230</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="3" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
+      <c r="A173" s="2" t="n">
         <v>758231</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="3" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
+      <c r="A174" s="2" t="n">
         <v>758232</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
+      <c r="A175" s="2" t="n">
         <v>758233</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="3" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
+      <c r="A176" s="2" t="n">
         <v>758234</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="3" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
+      <c r="A177" s="2" t="n">
         <v>758235</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="3" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
+      <c r="A178" s="2" t="n">
         <v>758236</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="3" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
+      <c r="A179" s="2" t="n">
         <v>758237</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="3" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
+      <c r="A180" s="2" t="n">
         <v>758238</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="3" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
+      <c r="A181" s="2" t="n">
         <v>758239</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="3" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
+      <c r="A182" s="2" t="n">
         <v>758240</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="3" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
+      <c r="A183" s="2" t="n">
         <v>758241</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="3" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
+      <c r="A184" s="2" t="n">
         <v>758242</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="3" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
+      <c r="A185" s="2" t="n">
         <v>758243</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="3" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
+      <c r="A186" s="2" t="n">
         <v>758244</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="3" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
+      <c r="A187" s="2" t="n">
         <v>758245</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="3" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
+      <c r="A188" s="2" t="n">
         <v>758246</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="3" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
+      <c r="A189" s="2" t="n">
         <v>758272</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
+      <c r="A190" s="2" t="n">
         <v>758273</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
+      <c r="A191" s="2" t="n">
         <v>758274</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="3" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
+      <c r="A192" s="2" t="n">
         <v>758275</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="3" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
+      <c r="A193" s="2" t="n">
         <v>758276</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="3" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
+      <c r="A194" s="2" t="n">
         <v>758277</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="3" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
+      <c r="A195" s="2" t="n">
         <v>758278</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="3" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
+      <c r="A196" s="2" t="n">
         <v>758279</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="3" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
+      <c r="A197" s="2" t="n">
         <v>758280</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="3" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
+      <c r="A198" s="2" t="n">
         <v>758281</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="3" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="n">
+      <c r="A199" s="2" t="n">
         <v>758282</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="3" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="n">
+      <c r="A200" s="2" t="n">
         <v>758283</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="3" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="n">
+      <c r="A201" s="2" t="n">
         <v>758284</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="3" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="n">
+      <c r="A202" s="2" t="n">
         <v>758285</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="n">
+      <c r="A203" s="2" t="n">
         <v>758286</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="3" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="n">
+      <c r="A204" s="2" t="n">
         <v>758287</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="3" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="n">
+      <c r="A205" s="2" t="n">
         <v>758288</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="3" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="n">
+      <c r="A206" s="2" t="n">
         <v>758289</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="3" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="n">
+      <c r="A207" s="2" t="n">
         <v>758290</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="3" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="n">
+      <c r="A208" s="2" t="n">
         <v>758291</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="3" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="n">
+      <c r="A209" s="2" t="n">
         <v>758292</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="3" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="n">
+      <c r="A210" s="2" t="n">
         <v>758293</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="3" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="n">
+      <c r="A211" s="2" t="n">
         <v>758294</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="n">
+      <c r="A212" s="2" t="n">
         <v>758295</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="3" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="n">
+      <c r="A213" s="2" t="n">
         <v>758296</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="3" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="n">
+      <c r="A214" s="2" t="n">
         <v>758347</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="3" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="n">
+      <c r="A215" s="2" t="n">
         <v>758348</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="3" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="n">
+      <c r="A216" s="2" t="n">
         <v>758349</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="3" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="n">
+      <c r="A217" s="2" t="n">
         <v>758350</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="3" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="n">
+      <c r="A218" s="2" t="n">
         <v>758351</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="3" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="n">
+      <c r="A219" s="2" t="n">
         <v>758352</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="3" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="n">
+      <c r="A220" s="2" t="n">
         <v>758353</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="3" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="n">
+      <c r="A221" s="2" t="n">
         <v>758354</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="3" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="n">
+      <c r="A222" s="2" t="n">
         <v>758355</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="3" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="n">
+      <c r="A223" s="2" t="n">
         <v>758356</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="3" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="n">
+      <c r="A224" s="2" t="n">
         <v>758357</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="3" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="n">
+      <c r="A225" s="2" t="n">
         <v>758358</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="n">
+      <c r="A226" s="2" t="n">
         <v>758359</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="3" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="n">
+      <c r="A227" s="2" t="n">
         <v>758360</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="3" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="n">
+      <c r="A228" s="2" t="n">
         <v>758361</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="3" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
+      <c r="A229" s="2" t="n">
         <v>758362</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="3" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
+      <c r="A230" s="2" t="n">
         <v>758363</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="3" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="n">
+      <c r="A231" s="2" t="n">
         <v>758364</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="3" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
+      <c r="A232" s="2" t="n">
         <v>758365</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="3" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
+      <c r="A233" s="2" t="n">
         <v>758366</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="3" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
+        <v>393621</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
+        <v>397800</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
+        <v>412649</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
+        <v>413158</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
+        <v>417844</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
+        <v>420525</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
+        <v>423970</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
+        <v>429578</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
+        <v>434998</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
+        <v>435008</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
+        <v>435555</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
+        <v>443496</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
+        <v>445381</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
+        <v>472391</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
+        <v>473652</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
+        <v>473702</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
+        <v>478736</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
+        <v>485259</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
+        <v>487334</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
+        <v>491270</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
+        <v>494714</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
+        <v>497071</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
+        <v>497484</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
+        <v>499208</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
+        <v>500798</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
+        <v>502949</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
+        <v>502950</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
+        <v>502953</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
+        <v>502956</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
+        <v>510074</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
+        <v>510610</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
+        <v>520909</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
+        <v>523687</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
+        <v>531188</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
+        <v>532065</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
+        <v>536964</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
+        <v>540276</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
+        <v>543222</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
+        <v>557650</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
+        <v>559320</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
+        <v>561167</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
+        <v>563775</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
+        <v>564457</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
+        <v>569694</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
+        <v>569745</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
+        <v>572514</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
+        <v>574644</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
+        <v>579191</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
+        <v>581699</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
+        <v>583848</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
+        <v>593397</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
+        <v>597661</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
+        <v>597847</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
+        <v>603222</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
+        <v>603966</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
+        <v>615274</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
+        <v>617991</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
+        <v>625148</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
+        <v>625150</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
+        <v>668125</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
+        <v>680703</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
+        <v>700016</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
+        <v>718369</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
+        <v>731369</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
+        <v>744616</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
+        <v>830127</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
+        <v>830210</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
+        <v>830645</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
